--- a/dtpu_configurations/only_integer16/50mhz/mxu_5x5/power.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_5x5/power.xlsx
@@ -175,19 +175,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.017535580322146416</v>
+        <v>0.020971808582544327</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.011109588667750359</v>
+        <v>0.008986441418528557</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.007041588891297579</v>
+        <v>0.006963242311030626</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0063186706975102425</v>
+        <v>0.007159823551774025</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>2.797835441015195E-5</v>
+        <v>5.1927378081018105E-5</v>
       </c>
       <c r="G2" t="n" s="4">
         <v>0.0017373355804011226</v>
@@ -199,10 +199,10 @@
         <v>1.258823275566101</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12637338042259216</v>
+        <v>0.12741456925868988</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4299441576004028</v>
+        <v>1.4330850839614868</v>
       </c>
     </row>
   </sheetData>
